--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfb1-Itgb6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfb1-Itgb6.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H2">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I2">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J2">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5156803333333333</v>
+        <v>0.5531836666666666</v>
       </c>
       <c r="N2">
-        <v>1.547041</v>
+        <v>1.659551</v>
       </c>
       <c r="O2">
-        <v>0.05562891841766063</v>
+        <v>0.05946633586794156</v>
       </c>
       <c r="P2">
-        <v>0.05562891841766063</v>
+        <v>0.05946633586794157</v>
       </c>
       <c r="Q2">
-        <v>25.13767995431766</v>
+        <v>26.47669811186122</v>
       </c>
       <c r="R2">
-        <v>226.239119588859</v>
+        <v>238.290283006751</v>
       </c>
       <c r="S2">
-        <v>0.008619093555140771</v>
+        <v>0.007303169125810005</v>
       </c>
       <c r="T2">
-        <v>0.008619093555140771</v>
+        <v>0.007303169125810005</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H3">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I3">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J3">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>13.333195</v>
       </c>
       <c r="O3">
-        <v>0.4794386295526496</v>
+        <v>0.4777655233631019</v>
       </c>
       <c r="P3">
-        <v>0.4794386295526497</v>
+        <v>0.4777655233631019</v>
       </c>
       <c r="Q3">
-        <v>216.6494544608116</v>
+        <v>212.7195722707994</v>
       </c>
       <c r="R3">
-        <v>1949.845090147305</v>
+        <v>1914.476150437195</v>
       </c>
       <c r="S3">
-        <v>0.07428378116283611</v>
+        <v>0.05867525497704158</v>
       </c>
       <c r="T3">
-        <v>0.07428378116283613</v>
+        <v>0.05867525497704158</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H4">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I4">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J4">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.03264066666666667</v>
+        <v>0.08877066666666666</v>
       </c>
       <c r="N4">
-        <v>0.09792200000000001</v>
+        <v>0.266312</v>
       </c>
       <c r="O4">
-        <v>0.003521105742701173</v>
+        <v>0.009542700909862518</v>
       </c>
       <c r="P4">
-        <v>0.003521105742701173</v>
+        <v>0.00954270090986252</v>
       </c>
       <c r="Q4">
-        <v>1.591122598875333</v>
+        <v>4.248777185856889</v>
       </c>
       <c r="R4">
-        <v>14.320103389878</v>
+        <v>38.238994672712</v>
       </c>
       <c r="S4">
-        <v>0.0005455568915797931</v>
+        <v>0.001171956496807097</v>
       </c>
       <c r="T4">
-        <v>0.0005455568915797931</v>
+        <v>0.001171956496807097</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H5">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I5">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J5">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.219107</v>
+        <v>4.073266333333334</v>
       </c>
       <c r="N5">
-        <v>12.657321</v>
+        <v>12.219799</v>
       </c>
       <c r="O5">
-        <v>0.4551353695830574</v>
+        <v>0.4378694427424867</v>
       </c>
       <c r="P5">
-        <v>0.4551353695830574</v>
+        <v>0.4378694427424867</v>
       </c>
       <c r="Q5">
-        <v>205.667260516731</v>
+        <v>194.9563039102888</v>
       </c>
       <c r="R5">
-        <v>1851.005344650579</v>
+        <v>1754.606735192599</v>
       </c>
       <c r="S5">
-        <v>0.07051825637229261</v>
+        <v>0.05377554457826483</v>
       </c>
       <c r="T5">
-        <v>0.07051825637229261</v>
+        <v>0.05377554457826483</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H6">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I6">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J6">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05817833333333333</v>
+        <v>0.1428486666666667</v>
       </c>
       <c r="N6">
-        <v>0.174535</v>
+        <v>0.428546</v>
       </c>
       <c r="O6">
-        <v>0.006275976703931181</v>
+        <v>0.01535599711660737</v>
       </c>
       <c r="P6">
-        <v>0.006275976703931182</v>
+        <v>0.01535599711660737</v>
       </c>
       <c r="Q6">
-        <v>2.835997863551666</v>
+        <v>6.837080071082888</v>
       </c>
       <c r="R6">
-        <v>25.523980771965</v>
+        <v>61.53372063974599</v>
       </c>
       <c r="S6">
-        <v>0.000972394069482641</v>
+        <v>0.001885898002646122</v>
       </c>
       <c r="T6">
-        <v>0.0009723940694826411</v>
+        <v>0.001885898002646122</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>55.966988</v>
       </c>
       <c r="I7">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J7">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5156803333333333</v>
+        <v>0.5531836666666666</v>
       </c>
       <c r="N7">
-        <v>1.547041</v>
+        <v>1.659551</v>
       </c>
       <c r="O7">
-        <v>0.05562891841766063</v>
+        <v>0.05946633586794156</v>
       </c>
       <c r="P7">
-        <v>0.05562891841766063</v>
+        <v>0.05946633586794157</v>
       </c>
       <c r="Q7">
-        <v>9.620358342500889</v>
+        <v>10.32000787804311</v>
       </c>
       <c r="R7">
-        <v>86.58322508250799</v>
+        <v>92.880070902388</v>
       </c>
       <c r="S7">
-        <v>0.003298584783427955</v>
+        <v>0.002846607329759001</v>
       </c>
       <c r="T7">
-        <v>0.003298584783427954</v>
+        <v>0.002846607329759002</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>55.966988</v>
       </c>
       <c r="I8">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J8">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>13.333195</v>
       </c>
       <c r="O8">
-        <v>0.4794386295526496</v>
+        <v>0.4777655233631019</v>
       </c>
       <c r="P8">
-        <v>0.4794386295526497</v>
+        <v>0.4777655233631019</v>
       </c>
       <c r="Q8">
         <v>82.91319606296223</v>
@@ -948,10 +948,10 @@
         <v>746.21876456666</v>
       </c>
       <c r="S8">
-        <v>0.02842890016585061</v>
+        <v>0.02287026467767852</v>
       </c>
       <c r="T8">
-        <v>0.02842890016585061</v>
+        <v>0.02287026467767853</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>55.966988</v>
       </c>
       <c r="I9">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J9">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.03264066666666667</v>
+        <v>0.08877066666666666</v>
       </c>
       <c r="N9">
-        <v>0.09792200000000001</v>
+        <v>0.266312</v>
       </c>
       <c r="O9">
-        <v>0.003521105742701173</v>
+        <v>0.009542700909862518</v>
       </c>
       <c r="P9">
-        <v>0.003521105742701173</v>
+        <v>0.00954270090986252</v>
       </c>
       <c r="Q9">
-        <v>0.6089332665484446</v>
+        <v>1.656075612028445</v>
       </c>
       <c r="R9">
-        <v>5.480399398936001</v>
+        <v>14.904680508256</v>
       </c>
       <c r="S9">
-        <v>0.0002087882733313676</v>
+        <v>0.0004568016838306139</v>
       </c>
       <c r="T9">
-        <v>0.0002087882733313676</v>
+        <v>0.000456801683830614</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>55.966988</v>
       </c>
       <c r="I10">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J10">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.219107</v>
+        <v>4.073266333333334</v>
       </c>
       <c r="N10">
-        <v>12.657321</v>
+        <v>12.219799</v>
       </c>
       <c r="O10">
-        <v>0.4551353695830574</v>
+        <v>0.4378694427424867</v>
       </c>
       <c r="P10">
-        <v>0.4551353695830574</v>
+        <v>0.4378694427424867</v>
       </c>
       <c r="Q10">
-        <v>78.71023694657201</v>
+        <v>75.9894826661569</v>
       </c>
       <c r="R10">
-        <v>708.3921325191479</v>
+        <v>683.9053439954121</v>
       </c>
       <c r="S10">
-        <v>0.02698780862922386</v>
+        <v>0.02096047027273143</v>
       </c>
       <c r="T10">
-        <v>0.02698780862922386</v>
+        <v>0.02096047027273143</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>55.966988</v>
       </c>
       <c r="I11">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J11">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.05817833333333333</v>
+        <v>0.1428486666666667</v>
       </c>
       <c r="N11">
-        <v>0.174535</v>
+        <v>0.428546</v>
       </c>
       <c r="O11">
-        <v>0.006275976703931181</v>
+        <v>0.01535599711660737</v>
       </c>
       <c r="P11">
-        <v>0.006275976703931182</v>
+        <v>0.01535599711660737</v>
       </c>
       <c r="Q11">
-        <v>1.085355361175556</v>
+        <v>2.664936537716444</v>
       </c>
       <c r="R11">
-        <v>9.768198250579999</v>
+        <v>23.984428839448</v>
       </c>
       <c r="S11">
-        <v>0.0003721417177538268</v>
+        <v>0.0007350796599435034</v>
       </c>
       <c r="T11">
-        <v>0.0003721417177538269</v>
+        <v>0.0007350796599435034</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H12">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I12">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J12">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5156803333333333</v>
+        <v>0.5531836666666666</v>
       </c>
       <c r="N12">
-        <v>1.547041</v>
+        <v>1.659551</v>
       </c>
       <c r="O12">
-        <v>0.05562891841766063</v>
+        <v>0.05946633586794156</v>
       </c>
       <c r="P12">
-        <v>0.05562891841766063</v>
+        <v>0.05946633586794157</v>
       </c>
       <c r="Q12">
-        <v>50.36205024189822</v>
+        <v>94.62753200674912</v>
       </c>
       <c r="R12">
-        <v>453.258452177084</v>
+        <v>851.6477880607421</v>
       </c>
       <c r="S12">
-        <v>0.01726791109809892</v>
+        <v>0.02610147486229383</v>
       </c>
       <c r="T12">
-        <v>0.01726791109809892</v>
+        <v>0.02610147486229383</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H13">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I13">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J13">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>13.333195</v>
       </c>
       <c r="O13">
-        <v>0.4794386295526496</v>
+        <v>0.4777655233631019</v>
       </c>
       <c r="P13">
-        <v>0.4794386295526497</v>
+        <v>0.4777655233631019</v>
       </c>
       <c r="Q13">
-        <v>434.0460507995755</v>
+        <v>760.2582485351322</v>
       </c>
       <c r="R13">
-        <v>3906.41445719618</v>
+        <v>6842.324236816191</v>
       </c>
       <c r="S13">
-        <v>0.1488237389400908</v>
+        <v>0.2097049467757012</v>
       </c>
       <c r="T13">
-        <v>0.1488237389400908</v>
+        <v>0.2097049467757013</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H14">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I14">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J14">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.03264066666666667</v>
+        <v>0.08877066666666666</v>
       </c>
       <c r="N14">
-        <v>0.09792200000000001</v>
+        <v>0.266312</v>
       </c>
       <c r="O14">
-        <v>0.003521105742701173</v>
+        <v>0.009542700909862518</v>
       </c>
       <c r="P14">
-        <v>0.003521105742701173</v>
+        <v>0.00954270090986252</v>
       </c>
       <c r="Q14">
-        <v>3.187732376703112</v>
+        <v>15.18509964670045</v>
       </c>
       <c r="R14">
-        <v>28.689591390328</v>
+        <v>136.665896820304</v>
       </c>
       <c r="S14">
-        <v>0.00109299520216209</v>
+        <v>0.004188564240283784</v>
       </c>
       <c r="T14">
-        <v>0.00109299520216209</v>
+        <v>0.004188564240283785</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H15">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I15">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J15">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.219107</v>
+        <v>4.073266333333334</v>
       </c>
       <c r="N15">
-        <v>12.657321</v>
+        <v>12.219799</v>
       </c>
       <c r="O15">
-        <v>0.4551353695830574</v>
+        <v>0.4378694427424867</v>
       </c>
       <c r="P15">
-        <v>0.4551353695830574</v>
+        <v>0.4378694427424867</v>
       </c>
       <c r="Q15">
-        <v>412.0437894857561</v>
+        <v>696.772452903551</v>
       </c>
       <c r="R15">
-        <v>3708.394105371804</v>
+        <v>6270.952076131959</v>
       </c>
       <c r="S15">
-        <v>0.1412797034907934</v>
+        <v>0.192193416424553</v>
       </c>
       <c r="T15">
-        <v>0.1412797034907934</v>
+        <v>0.192193416424553</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H16">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I16">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J16">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.05817833333333333</v>
+        <v>0.1428486666666667</v>
       </c>
       <c r="N16">
-        <v>0.174535</v>
+        <v>0.428546</v>
       </c>
       <c r="O16">
-        <v>0.006275976703931181</v>
+        <v>0.01535599711660737</v>
       </c>
       <c r="P16">
-        <v>0.006275976703931182</v>
+        <v>0.01535599711660737</v>
       </c>
       <c r="Q16">
-        <v>5.681776009148889</v>
+        <v>24.43567587339244</v>
       </c>
       <c r="R16">
-        <v>51.13598408234</v>
+        <v>219.921082860532</v>
       </c>
       <c r="S16">
-        <v>0.001948141557661817</v>
+        <v>0.006740186138501661</v>
       </c>
       <c r="T16">
-        <v>0.001948141557661817</v>
+        <v>0.006740186138501662</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H17">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I17">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J17">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5156803333333333</v>
+        <v>0.5531836666666666</v>
       </c>
       <c r="N17">
-        <v>1.547041</v>
+        <v>1.659551</v>
       </c>
       <c r="O17">
-        <v>0.05562891841766063</v>
+        <v>0.05946633586794156</v>
       </c>
       <c r="P17">
-        <v>0.05562891841766063</v>
+        <v>0.05946633586794157</v>
       </c>
       <c r="Q17">
-        <v>5.58712430434411</v>
+        <v>6.985629342299</v>
       </c>
       <c r="R17">
-        <v>50.284118739097</v>
+        <v>62.870664080691</v>
       </c>
       <c r="S17">
-        <v>0.001915687810921922</v>
+        <v>0.001926872917517439</v>
       </c>
       <c r="T17">
-        <v>0.001915687810921922</v>
+        <v>0.001926872917517439</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H18">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I18">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J18">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>13.333195</v>
       </c>
       <c r="O18">
-        <v>0.4794386295526496</v>
+        <v>0.4777655233631019</v>
       </c>
       <c r="P18">
-        <v>0.4794386295526497</v>
+        <v>0.4777655233631019</v>
       </c>
       <c r="Q18">
-        <v>48.15271078081277</v>
+        <v>56.124071040055</v>
       </c>
       <c r="R18">
-        <v>433.374397027315</v>
+        <v>505.116639360495</v>
       </c>
       <c r="S18">
-        <v>0.01651038281606313</v>
+        <v>0.01548091763945726</v>
       </c>
       <c r="T18">
-        <v>0.01651038281606313</v>
+        <v>0.01548091763945726</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H19">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I19">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J19">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,28 +1612,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.03264066666666667</v>
+        <v>0.08877066666666666</v>
       </c>
       <c r="N19">
-        <v>0.09792200000000001</v>
+        <v>0.266312</v>
       </c>
       <c r="O19">
-        <v>0.003521105742701173</v>
+        <v>0.009542700909862518</v>
       </c>
       <c r="P19">
-        <v>0.003521105742701173</v>
+        <v>0.00954270090986252</v>
       </c>
       <c r="Q19">
-        <v>0.3536443999415556</v>
+        <v>1.121000150888</v>
       </c>
       <c r="R19">
-        <v>3.182799599474</v>
+        <v>10.089001357992</v>
       </c>
       <c r="S19">
-        <v>0.0001212559859894447</v>
+        <v>0.0003092097684312831</v>
       </c>
       <c r="T19">
-        <v>0.0001212559859894447</v>
+        <v>0.0003092097684312831</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H20">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I20">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J20">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.219107</v>
+        <v>4.073266333333334</v>
       </c>
       <c r="N20">
-        <v>12.657321</v>
+        <v>12.219799</v>
       </c>
       <c r="O20">
-        <v>0.4551353695830574</v>
+        <v>0.4378694427424867</v>
       </c>
       <c r="P20">
-        <v>0.4551353695830574</v>
+        <v>0.4378694427424867</v>
       </c>
       <c r="Q20">
-        <v>45.711798062873</v>
+        <v>51.43739870085101</v>
       </c>
       <c r="R20">
-        <v>411.406182565857</v>
+        <v>462.936588307659</v>
       </c>
       <c r="S20">
-        <v>0.01567345374726725</v>
+        <v>0.01418817484404317</v>
       </c>
       <c r="T20">
-        <v>0.01567345374726725</v>
+        <v>0.01418817484404317</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H21">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I21">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J21">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.05817833333333333</v>
+        <v>0.1428486666666667</v>
       </c>
       <c r="N21">
-        <v>0.174535</v>
+        <v>0.428546</v>
       </c>
       <c r="O21">
-        <v>0.006275976703931181</v>
+        <v>0.01535599711660737</v>
       </c>
       <c r="P21">
-        <v>0.006275976703931182</v>
+        <v>0.01535599711660737</v>
       </c>
       <c r="Q21">
-        <v>0.6303315428994444</v>
+        <v>1.803899676554</v>
       </c>
       <c r="R21">
-        <v>5.672983886094999</v>
+        <v>16.235097088986</v>
       </c>
       <c r="S21">
-        <v>0.0002161252171592464</v>
+        <v>0.0004975765621607461</v>
       </c>
       <c r="T21">
-        <v>0.0002161252171592464</v>
+        <v>0.0004975765621607462</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>138.7199146666667</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H22">
-        <v>416.159744</v>
+        <v>418.546342</v>
       </c>
       <c r="I22">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J22">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.5156803333333333</v>
+        <v>0.5531836666666666</v>
       </c>
       <c r="N22">
-        <v>1.547041</v>
+        <v>1.659551</v>
       </c>
       <c r="O22">
-        <v>0.05562891841766063</v>
+        <v>0.05946633586794156</v>
       </c>
       <c r="P22">
-        <v>0.05562891841766063</v>
+        <v>0.05946633586794157</v>
       </c>
       <c r="Q22">
-        <v>71.53513183527822</v>
+        <v>77.17766671249355</v>
       </c>
       <c r="R22">
-        <v>643.816186517504</v>
+        <v>694.599000412442</v>
       </c>
       <c r="S22">
-        <v>0.02452764117007106</v>
+        <v>0.02128821163256128</v>
       </c>
       <c r="T22">
-        <v>0.02452764117007106</v>
+        <v>0.02128821163256129</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>138.7199146666667</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H23">
-        <v>416.159744</v>
+        <v>418.546342</v>
       </c>
       <c r="I23">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J23">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>13.333195</v>
       </c>
       <c r="O23">
-        <v>0.4794386295526496</v>
+        <v>0.4777655233631019</v>
       </c>
       <c r="P23">
-        <v>0.4794386295526497</v>
+        <v>0.4777655233631019</v>
       </c>
       <c r="Q23">
-        <v>616.5265575446756</v>
+        <v>620.062221602521</v>
       </c>
       <c r="R23">
-        <v>5548.73901790208</v>
+        <v>5580.55999442269</v>
       </c>
       <c r="S23">
-        <v>0.211391826467809</v>
+        <v>0.1710341392932232</v>
       </c>
       <c r="T23">
-        <v>0.211391826467809</v>
+        <v>0.1710341392932233</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>138.7199146666667</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H24">
-        <v>416.159744</v>
+        <v>418.546342</v>
       </c>
       <c r="I24">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J24">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1922,28 +1922,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.03264066666666667</v>
+        <v>0.08877066666666666</v>
       </c>
       <c r="N24">
-        <v>0.09792200000000001</v>
+        <v>0.266312</v>
       </c>
       <c r="O24">
-        <v>0.003521105742701173</v>
+        <v>0.009542700909862518</v>
       </c>
       <c r="P24">
-        <v>0.003521105742701173</v>
+        <v>0.00954270090986252</v>
       </c>
       <c r="Q24">
-        <v>4.527910494663113</v>
+        <v>12.38487927007822</v>
       </c>
       <c r="R24">
-        <v>40.75119445196801</v>
+        <v>111.463913430704</v>
       </c>
       <c r="S24">
-        <v>0.001552509389638477</v>
+        <v>0.00341616872050974</v>
       </c>
       <c r="T24">
-        <v>0.001552509389638477</v>
+        <v>0.003416168720509741</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>138.7199146666667</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H25">
-        <v>416.159744</v>
+        <v>418.546342</v>
       </c>
       <c r="I25">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J25">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.219107</v>
+        <v>4.073266333333334</v>
       </c>
       <c r="N25">
-        <v>12.657321</v>
+        <v>12.219799</v>
       </c>
       <c r="O25">
-        <v>0.4551353695830574</v>
+        <v>0.4378694427424867</v>
       </c>
       <c r="P25">
-        <v>0.4551353695830574</v>
+        <v>0.4378694427424867</v>
       </c>
       <c r="Q25">
-        <v>585.2741630095361</v>
+        <v>568.2835746028064</v>
       </c>
       <c r="R25">
-        <v>5267.467467085825</v>
+        <v>5114.552171425258</v>
       </c>
       <c r="S25">
-        <v>0.2006761473434803</v>
+        <v>0.1567518366228942</v>
       </c>
       <c r="T25">
-        <v>0.2006761473434803</v>
+        <v>0.1567518366228942</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>138.7199146666667</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H26">
-        <v>416.159744</v>
+        <v>418.546342</v>
       </c>
       <c r="I26">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J26">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.05817833333333333</v>
+        <v>0.1428486666666667</v>
       </c>
       <c r="N26">
-        <v>0.174535</v>
+        <v>0.428546</v>
       </c>
       <c r="O26">
-        <v>0.006275976703931181</v>
+        <v>0.01535599711660737</v>
       </c>
       <c r="P26">
-        <v>0.006275976703931182</v>
+        <v>0.01535599711660737</v>
       </c>
       <c r="Q26">
-        <v>8.07049343544889</v>
+        <v>19.92959563097022</v>
       </c>
       <c r="R26">
-        <v>72.63444091904</v>
+        <v>179.366360678732</v>
       </c>
       <c r="S26">
-        <v>0.00276717414187365</v>
+        <v>0.005497256753355339</v>
       </c>
       <c r="T26">
-        <v>0.00276717414187365</v>
+        <v>0.00549725675335534</v>
       </c>
     </row>
   </sheetData>
